--- a/medicine/Enfance/Le_Passage_(roman,_1998)/Le_Passage_(roman,_1998).xlsx
+++ b/medicine/Enfance/Le_Passage_(roman,_1998)/Le_Passage_(roman,_1998).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Passage, aussi connu sous le titre La Morsure du lézard (titre original : Holes) est le plus célèbre des romans de littérature jeunesse écrits par l'auteur américain Louis Sachar. Publié en 1998, il fut très bien accueilli par les lecteurs et les critiques. Il est récipiendaire en 1999 du Prix littéraire national pour la littérature jeunesse (National Book Award for Young People's Literature) et de la médaille Newbery, qui récompense chaque année l'œuvre ayant apporté la contribution la plus distinguée à la littérature jeunesse américaine. 
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le protagoniste, Stanley Yelnats IV, est un jeune garçon de 14 ans qui se retrouve injustement envoyé dans un centre d'éducation pour délinquants juvéniles au Texas, le "Camp du Lac vert", parce qu'on l'accuse d'avoir volé une paire de baskets qu'il a simplement reçues sur la tête. Stanley pense être victime d'un mauvais sort qui s'est abattu sur sa famille lorsque son arrière-arrière-grand-père n'a pas respecté une promesse faite à une vieille gitane. 
 Le camp se trouve au milieu du désert, auprès d'un lac qui s'est asséché des années auparavant, et héberge désormais des lézards venimeux dont la morsure est mortelle. Les activités du camp se résument à creuser un trou par jour dans ces étendues sauvages, trou cylindrique qui doit faire 5 pieds de larges sur 5 pieds de profondeur, prétendument afin de se "forger le caractère".
@@ -551,9 +565,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1999 : médaille Newbery[1] et National Book Award for Young People's Literature
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1999 : médaille Newbery et National Book Award for Young People's Literature
 2001 : Young Reader's Choice Award ; Prix Sorcières, catégorie Roman adolescents.
 2002 : Prix Ado-Lisant</t>
         </is>
@@ -585,10 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adaptation cinématographique
-Le roman a été adapté en film en 2003 par Walt Disney Pictures, sous le titre La Morsure du lézard, avec comme acteurs principaux Shia LaBeouf et Khleo Thomas. Le film reçut un bon accueil de la part des critiques, mais ne fut pas un grand succès commercial, rapportant 71 millions de dollars.
-Adaptation à la scène
-Le roman a été adapté à la scène en 2018[2] : La mécanique du Hasard, de Catherine Verlaguet d'après le roman de Louis Sachar, mise en scène d'Olivier letellier.
+          <t>Adaptation cinématographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman a été adapté en film en 2003 par Walt Disney Pictures, sous le titre La Morsure du lézard, avec comme acteurs principaux Shia LaBeouf et Khleo Thomas. Le film reçut un bon accueil de la part des critiques, mais ne fut pas un grand succès commercial, rapportant 71 millions de dollars.
 </t>
         </is>
       </c>
@@ -614,10 +633,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Adaptation à la scène</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman a été adapté à la scène en 2018 : La mécanique du Hasard, de Catherine Verlaguet d'après le roman de Louis Sachar, mise en scène d'Olivier letellier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Passage_(roman,_1998)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Passage_(roman,_1998)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Suites</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2003, au moment où Walt Disney Pictures adapte le roman à l'écran, Louis Sachar publie le Guide de Survie de Stanley Yelnat's au Camp du Lac vert, où le personnage principal de Passage, Stanley, donne ses conseils pour survivre dans des terres arides peuplées d'animaux hostiles.
 En 2006, Louis Sachar publie une suite à Passage intitulée Pas à pas (titre original : Small Steps), qui suit deux des personnages secondaires du Passage, Aisselle et X-Ray, après la fin de ce dernier.
